--- a/testdata/samples/packages/packages_registry.redhat.io_redhat_redhat_operator_index_v4.7_2021-08-10.xlsx
+++ b/testdata/samples/packages/packages_registry.redhat.io_redhat_redhat_operator_index_v4.7_2021-08-10.xlsx
@@ -38,7 +38,7 @@
             <color indexed="81"/>
             <sz val="9"/>
           </rPr>
-          <t>[olm-crds-have-resources olm-status-descriptors olm-spec-descriptors]</t>
+          <t>[olm-crds-have-resources olm-spec-descriptors olm-status-descriptors]</t>
         </r>
       </text>
     </comment>
@@ -61,7 +61,7 @@
             <color indexed="81"/>
             <sz val="9"/>
           </rPr>
-          <t>[olm-spec-descriptors olm-status-descriptors olm-crds-have-resources]</t>
+          <t>[olm-spec-descriptors olm-crds-have-resources olm-status-descriptors]</t>
         </r>
       </text>
     </comment>
@@ -107,7 +107,7 @@
             <color indexed="81"/>
             <sz val="9"/>
           </rPr>
-          <t>[basic-check-spec olm-spec-descriptors olm-status-descriptors olm-crds-have-resources olm-crds-have-validation]</t>
+          <t>[olm-spec-descriptors olm-crds-have-resources basic-check-spec olm-crds-have-validation olm-status-descriptors]</t>
         </r>
       </text>
     </comment>
@@ -130,7 +130,7 @@
             <color indexed="81"/>
             <sz val="9"/>
           </rPr>
-          <t>[olm-spec-descriptors olm-status-descriptors olm-crds-have-resources]</t>
+          <t>[olm-spec-descriptors olm-crds-have-resources olm-status-descriptors]</t>
         </r>
       </text>
     </comment>
@@ -162,34 +162,34 @@
     <t>sha256:cc0ba155b29cbae0be0e1c2120017c541c9f5e6f51a47cd4ed74574c68e7c90d</t>
   </si>
   <si>
+    <t>Has Scorecard Suggestions</t>
+  </si>
+  <si>
+    <t>Has Scorecard Falling Tests</t>
+  </si>
+  <si>
+    <t>Has Validator Errors</t>
+  </si>
+  <si>
+    <t>Has Invalid SkipRange</t>
+  </si>
+  <si>
+    <t>Has Support for All Namespaces</t>
+  </si>
+  <si>
+    <t>Has Support for Own Namespaces</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
+    <t>Is using Webhooks</t>
+  </si>
+  <si>
+    <t>Has custom Scorecards</t>
+  </si>
+  <si>
     <t>Has Invalid Versioning</t>
-  </si>
-  <si>
-    <t>Is multi-channel</t>
-  </si>
-  <si>
-    <t>Has Support for All Namespaces</t>
-  </si>
-  <si>
-    <t>Has Support for Own Namespaces</t>
-  </si>
-  <si>
-    <t>Has custom Scorecards</t>
-  </si>
-  <si>
-    <t>Has Validator Warnings</t>
-  </si>
-  <si>
-    <t>Is using Webhooks</t>
-  </si>
-  <si>
-    <t>Multiple Architectures used</t>
-  </si>
-  <si>
-    <t>Has Scorecard Falling Tests</t>
-  </si>
-  <si>
-    <t>Has Support for Multi Namespaces</t>
   </si>
   <si>
     <t>Has possible performance issues</t>
@@ -199,25 +199,25 @@
  (Suggestion API(s) usage)</t>
   </si>
   <si>
+    <t>Multiple Architectures used</t>
+  </si>
+  <si>
+    <t>Has Infrastructure Support</t>
+  </si>
+  <si>
+    <t>Issues (To process this report)</t>
+  </si>
+  <si>
+    <t>Has Validator Warnings</t>
+  </si>
+  <si>
+    <t>Is multi-channel</t>
+  </si>
+  <si>
     <t>Has Support for Single Namespaces</t>
   </si>
   <si>
-    <t>Package Name</t>
-  </si>
-  <si>
-    <t>Has Validator Errors</t>
-  </si>
-  <si>
-    <t>Has Invalid SkipRange</t>
-  </si>
-  <si>
-    <t>Has Infrastructure Support</t>
-  </si>
-  <si>
-    <t>Issues (To process this report)</t>
-  </si>
-  <si>
-    <t>Has Scorecard Suggestions</t>
+    <t>Has Support for Multi Namespaces</t>
   </si>
   <si>
     <t>3scale-operator</t>
@@ -649,61 +649,61 @@
     </row>
     <row r="5" ht="15" customHeight="true">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="s">
         <v>17</v>
       </c>
       <c r="R5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="true">
